--- a/import/prep/excel_original_receipt/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
+++ b/import/prep/excel_original_receipt/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEDF76D-7D6F-DA4F-A7B9-E537D9EDD8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD8C87-C3B4-BB4C-AB21-BA77301DC21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68902,8 +68902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W303"/>
   <sheetViews>
-    <sheetView topLeftCell="E269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85169,8 +85169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -91990,6 +91990,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -92000,15 +92009,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
